--- a/template/Solaris/blank_XSCFチェックシート.xlsx
+++ b/template/Solaris/blank_XSCFチェックシート.xlsx
@@ -12,11 +12,12 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="検査対象" sheetId="1" r:id="rId1"/>
-    <sheet name="検査レポート" sheetId="2" r:id="rId2"/>
-    <sheet name="エラーレポート" sheetId="3" r:id="rId3"/>
-    <sheet name="チェックシート(Solaris)" sheetId="4" r:id="rId4"/>
-    <sheet name="テンプレート(XSCF)" sheetId="5" r:id="rId5"/>
+    <sheet name="利用手順" sheetId="6" r:id="rId1"/>
+    <sheet name="検査対象" sheetId="1" r:id="rId2"/>
+    <sheet name="検査レポート" sheetId="2" r:id="rId3"/>
+    <sheet name="エラーレポート" sheetId="3" r:id="rId4"/>
+    <sheet name="チェックシート(Solaris)" sheetId="4" r:id="rId5"/>
+    <sheet name="テンプレート(XSCF)" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="443629826"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="133">
   <si>
     <t>共通設定</t>
   </si>
@@ -283,13 +284,391 @@
   </si>
   <si>
     <t>v2</t>
+  </si>
+  <si>
+    <t>0. はじめに</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>* XSCF 管理インターフェースを用いて、SPARC サーバのHW構成情報を採取します。</t>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>モチ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>* .\template\Solaris が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1. プロジェクトディレクトリの移動</t>
+    <rPh sb="16" eb="18">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Solaris OSテンプレートのインベントリ採取実行後、同ディレクトリで XSCF の HW構成情報収集します</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>2. 検査シート編集</t>
+  </si>
+  <si>
+    <t>「.\template\Solaris\XSCFチェックシート.xlsx」(本ファイル)を開きます。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
+  </si>
+  <si>
+    <t>検査するシナリオID Solaris を指定します。</t>
+    <rPh sb="20" eb="22">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>対象サーバ</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>検査対象サーバ名。任意の名前で問題ありませんが、通常はホスト名を指定します。</t>
+    <rPh sb="9" eb="11">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>IPアドレス</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>検査対象サーバのIPを入力します。</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>後述する設定ファイル (connfig.goovy) 内に記述した接続アカウント ID を指定します。</t>
+    <rPh sb="0" eb="2">
+      <t>コウジュツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>テンプレートID</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(オプション)  別シートの値の比較用テンプレートシートのID Solaris10 または、 Solaris11 を指定します。</t>
+    <rPh sb="9" eb="10">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>エイリアス</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(未使用)</t>
+    <rPh sb="1" eb="4">
+      <t>ミシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>比較対象</t>
+    <rPh sb="0" eb="2">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(オプション) インベントリ結果の比較をしたい場合に、比較対象サーバ名を指定します。</t>
+    <rPh sb="14" eb="16">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>特定パスワード</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(オプション) 接続時のパスワード入力で、対象サーバ固有の値を指定する場合に入力します。空欄の場合は設定ファイル(config.groovy)内に記述したパスワードを使用します。</t>
+    <rPh sb="8" eb="10">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ネットワーク</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(オプション) OS設定項目の値比較で、対象サーバ固有の値を指定する場合に入力します。空欄の場合はテンプレートの値を比較します。</t>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>入力例：</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>m10</t>
+  </si>
+  <si>
+    <t>10.20.129.20</t>
+  </si>
+  <si>
+    <t>m12</t>
+  </si>
+  <si>
+    <t>10.20.129.22</t>
+  </si>
+  <si>
+    <t>3. 設定ファイル(config.groovy)編集</t>
+  </si>
+  <si>
+    <t>設定ファイルを編集します。</t>
+  </si>
+  <si>
+    <t>notepad++ .\template\Solaris\config_xscf.groovy</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>以下の各検査対象の接続情報を編集します。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>// XSCF 接続情報</t>
+  </si>
+  <si>
+    <t>account.XSCF.Test.user      = 'console'</t>
+  </si>
+  <si>
+    <t>account.XSCF.Test.password  = 'console0'</t>
+  </si>
+  <si>
+    <t>account.XSCF.Test.work_dir  = '/tmp/gradle_test'</t>
+  </si>
+  <si>
+    <t>4. Getconfig インベントリ収集実行</t>
+  </si>
+  <si>
+    <t>getconfig コマンドを実行して、検査対象のインベントリ収集を行います。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>getconfig -c .\template\Solaris\config_xscf.groovy</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>5. 実行結果の参照とコミット</t>
+  </si>
+  <si>
+    <t>getconfig 実行後、 build 下に保存されたインベントリ収集結果を確認します。</t>
+  </si>
+  <si>
+    <t>dir .\build</t>
+  </si>
+  <si>
+    <t>保存された「サーバチェックシート_{日時}.xlsx」を開いてインベントリ収集結果を確認します。</t>
+  </si>
+  <si>
+    <t>結果の確認ができたら、インベントリ収集結果をコミットをします。</t>
+  </si>
+  <si>
+    <t>getconfig -u local</t>
+  </si>
+  <si>
+    <t>構成管理データベースにインベントリ結果をロードする場合は、以下を実行します。</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>getconfig -u db</t>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -339,8 +718,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,8 +769,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -500,16 +892,136 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -555,10 +1067,59 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="17" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="18" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="出力" xfId="1" builtinId="21" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="標準 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -871,9 +1432,614 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:N75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="3.625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="15" customWidth="1"/>
+    <col min="5" max="5" width="13" style="15" customWidth="1"/>
+    <col min="6" max="6" width="9" style="15"/>
+    <col min="7" max="7" width="13.75" style="15" customWidth="1"/>
+    <col min="8" max="8" width="13.125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="15" customWidth="1"/>
+    <col min="10" max="11" width="15.875" style="15" customWidth="1"/>
+    <col min="12" max="1020" width="8.75" style="15" customWidth="1"/>
+    <col min="1021" max="1022" width="11.625" style="15" customWidth="1"/>
+    <col min="1023" max="16384" width="9" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C17" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C18" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C19" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C20" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C21" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C22" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C23" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C24" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B26" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B28" s="16"/>
+      <c r="C28" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" s="17"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B30" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B31" s="18">
+        <v>1</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B32" s="18">
+        <v>2</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B33" s="18">
+        <v>3</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B34" s="18">
+        <v>4</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B35" s="18">
+        <v>5</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B36" s="18">
+        <v>6</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B37" s="18">
+        <v>7</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B38" s="18">
+        <v>8</v>
+      </c>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B39" s="18">
+        <v>9</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B40" s="18">
+        <v>10</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A42" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B44" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C46" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="21"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B48" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C50" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="24"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C51" s="25"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="27"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C52" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="27"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C53" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="27"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C54" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="30"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A56" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B58" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C60" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="21"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A62" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B64" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C66" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="21"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B68" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B69" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C71" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="21"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B73" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C75" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="20"/>
+      <c r="L75" s="20"/>
+      <c r="M75" s="20"/>
+      <c r="N75" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="J28:K28"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1272,7 +2438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O15"/>
   <sheetViews>
@@ -1595,7 +2761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -1684,7 +2850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -1863,7 +3029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F102"/>
   <sheetViews>

--- a/template/Solaris/blank_XSCFチェックシート.xlsx
+++ b/template/Solaris/blank_XSCFチェックシート.xlsx
@@ -726,7 +726,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -773,6 +773,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1021,7 +1027,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1064,19 +1070,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="2" applyFill="1" applyBorder="1">
@@ -1113,6 +1107,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1435,590 +1444,1491 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:N75"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="3.625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="15" customWidth="1"/>
-    <col min="5" max="5" width="13" style="15" customWidth="1"/>
-    <col min="6" max="6" width="9" style="15"/>
-    <col min="7" max="7" width="13.75" style="15" customWidth="1"/>
-    <col min="8" max="8" width="13.125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="15" customWidth="1"/>
-    <col min="10" max="11" width="15.875" style="15" customWidth="1"/>
-    <col min="12" max="1020" width="8.75" style="15" customWidth="1"/>
-    <col min="1021" max="1022" width="11.625" style="15" customWidth="1"/>
-    <col min="1023" max="16384" width="9" style="15"/>
+    <col min="1" max="2" width="3.625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="14" customWidth="1"/>
+    <col min="5" max="5" width="13" style="14" customWidth="1"/>
+    <col min="6" max="6" width="9" style="14"/>
+    <col min="7" max="7" width="13.75" style="14" customWidth="1"/>
+    <col min="8" max="8" width="13.125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="14" customWidth="1"/>
+    <col min="10" max="11" width="15.875" style="14" customWidth="1"/>
+    <col min="12" max="1020" width="8.75" style="14" customWidth="1"/>
+    <col min="1021" max="1022" width="11.625" style="14" customWidth="1"/>
+    <col min="1023" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="15" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B5" s="15" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="15" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="28" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B9" s="15" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="15" t="s">
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="28" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B13" s="15" t="s">
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B14" s="15" t="s">
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C16" s="15" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="28" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C17" s="15" t="s">
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="28" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C18" s="15" t="s">
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="28" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C19" s="15" t="s">
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="28" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C20" s="15" t="s">
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="28" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C21" s="15" t="s">
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="28" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C22" s="15" t="s">
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="28" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C23" s="15" t="s">
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="28" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C24" s="15" t="s">
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="28" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B26" s="15" t="s">
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B28" s="16"/>
-      <c r="C28" s="17" t="s">
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" s="28"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17" t="s">
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="K28" s="17"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B29" s="16"/>
-      <c r="C29" s="16" t="s">
+      <c r="K28" s="30"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29" s="28"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="16" t="s">
+      <c r="H29" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="16" t="s">
+      <c r="I29" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="16" t="s">
+      <c r="J29" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K29" s="16" t="s">
+      <c r="K29" s="29" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B30" s="16" t="s">
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A30" s="28"/>
+      <c r="B30" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="H30" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="16" t="s">
+      <c r="I30" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="16" t="s">
+      <c r="J30" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="16" t="s">
+      <c r="K30" s="29" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B31" s="18">
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31" s="28"/>
+      <c r="B31" s="31">
         <v>1</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B32" s="18">
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32" s="28"/>
+      <c r="B32" s="31">
         <v>2</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G32" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B33" s="18">
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A33" s="28"/>
+      <c r="B33" s="31">
         <v>3</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B34" s="18">
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A34" s="28"/>
+      <c r="B34" s="31">
         <v>4</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B35" s="18">
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A35" s="28"/>
+      <c r="B35" s="31">
         <v>5</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B36" s="18">
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A36" s="28"/>
+      <c r="B36" s="31">
         <v>6</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B37" s="18">
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A37" s="28"/>
+      <c r="B37" s="31">
         <v>7</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B38" s="18">
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A38" s="28"/>
+      <c r="B38" s="31">
         <v>8</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B39" s="18">
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A39" s="28"/>
+      <c r="B39" s="31">
         <v>9</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B40" s="18">
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A40" s="28"/>
+      <c r="B40" s="31">
         <v>10</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A42" s="15" t="s">
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A42" s="28" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B44" s="15" t="s">
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A44" s="28"/>
+      <c r="B44" s="28" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C46" s="19" t="s">
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="21"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B48" s="15" t="s">
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="28"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A48" s="28"/>
+      <c r="B48" s="28" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C50" s="22" t="s">
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="24"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C51" s="25"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="27"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C52" s="25" t="s">
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="28"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="28"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="27"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C53" s="25" t="s">
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="28"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="27"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C54" s="28" t="s">
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="28"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="30"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A56" s="15" t="s">
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="28"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A55" s="28"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A56" s="28" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B58" s="15" t="s">
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A57" s="28"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="28"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A58" s="28"/>
+      <c r="B58" s="28" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C60" s="19" t="s">
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="28"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A59" s="28"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="28"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A60" s="28"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="21"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A62" s="15" t="s">
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="28"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A61" s="28"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="28"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="28"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A62" s="28" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B64" s="15" t="s">
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="28"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A63" s="28"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="28"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A64" s="28"/>
+      <c r="B64" s="28" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C66" s="19" t="s">
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="28"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="28"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A65" s="28"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="28"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="28"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A66" s="28"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="20"/>
-      <c r="N66" s="21"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B68" s="15" t="s">
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="28"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A67" s="28"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="28"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="28"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A68" s="28"/>
+      <c r="B68" s="28" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B69" s="15" t="s">
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="28"/>
+      <c r="O68" s="28"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A69" s="28"/>
+      <c r="B69" s="28" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C71" s="19" t="s">
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="28"/>
+      <c r="M69" s="28"/>
+      <c r="N69" s="28"/>
+      <c r="O69" s="28"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A70" s="28"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="28"/>
+      <c r="M70" s="28"/>
+      <c r="N70" s="28"/>
+      <c r="O70" s="28"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A71" s="28"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="20"/>
-      <c r="L71" s="20"/>
-      <c r="M71" s="20"/>
-      <c r="N71" s="21"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B73" s="15" t="s">
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="28"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A72" s="28"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="28"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="28"/>
+      <c r="O72" s="28"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A73" s="28"/>
+      <c r="B73" s="28" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C75" s="19" t="s">
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="28"/>
+      <c r="M73" s="28"/>
+      <c r="N73" s="28"/>
+      <c r="O73" s="28"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A74" s="28"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="28"/>
+      <c r="L74" s="28"/>
+      <c r="M74" s="28"/>
+      <c r="N74" s="28"/>
+      <c r="O74" s="28"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A75" s="28"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="20"/>
-      <c r="K75" s="20"/>
-      <c r="L75" s="20"/>
-      <c r="M75" s="20"/>
-      <c r="N75" s="21"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="28"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A76" s="28"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="28"/>
+      <c r="M76" s="28"/>
+      <c r="N76" s="28"/>
+      <c r="O76" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2059,19 +2969,19 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>

--- a/template/Solaris/blank_XSCFチェックシート.xlsx
+++ b/template/Solaris/blank_XSCFチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="711" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="128">
   <si>
     <t>共通設定</t>
   </si>
@@ -269,21 +269,6 @@
   </si>
   <si>
     <t>snmp_version:k</t>
-  </si>
-  <si>
-    <t>${ip}</t>
-  </si>
-  <si>
-    <t>Enabled</t>
-  </si>
-  <si>
-    <t>host2</t>
-  </si>
-  <si>
-    <t>public</t>
-  </si>
-  <si>
-    <t>v2</t>
   </si>
   <si>
     <t>0. はじめに</t>
@@ -1109,19 +1094,19 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1446,7 +1431,7 @@
   </sheetPr>
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1465,521 +1450,521 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="28" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28" t="s">
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="28" t="s">
+      <c r="D17" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28" t="s">
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28" t="s">
+      <c r="D18" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="28" t="s">
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28" t="s">
+      <c r="D19" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28" t="s">
+      <c r="D20" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28" t="s">
+      <c r="D21" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28" t="s">
+      <c r="D22" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28" t="s">
+      <c r="D23" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28" t="s">
+      <c r="D24" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A28" s="28"/>
-      <c r="B28" s="29"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="30" t="s">
         <v>0</v>
       </c>
@@ -1993,387 +1978,387 @@
         <v>1</v>
       </c>
       <c r="K28" s="30"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A29" s="28"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29" t="s">
+      <c r="A29" s="27"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="29" t="s">
+      <c r="E29" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="29" t="s">
+      <c r="H29" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="29" t="s">
+      <c r="I29" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="29" t="s">
+      <c r="J29" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K29" s="29" t="s">
+      <c r="K29" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29" t="s">
+      <c r="A30" s="27"/>
+      <c r="B30" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="29" t="s">
+      <c r="E30" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="29" t="s">
+      <c r="F30" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="29" t="s">
+      <c r="G30" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="29" t="s">
+      <c r="H30" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="29" t="s">
+      <c r="I30" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="29" t="s">
+      <c r="J30" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="29" t="s">
+      <c r="K30" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A31" s="28"/>
-      <c r="B31" s="31">
+      <c r="A31" s="27"/>
+      <c r="B31" s="29">
         <v>1</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32" s="27"/>
+      <c r="B32" s="29">
+        <v>2</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A33" s="27"/>
+      <c r="B33" s="29">
+        <v>3</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A34" s="27"/>
+      <c r="B34" s="29">
+        <v>4</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A35" s="27"/>
+      <c r="B35" s="29">
+        <v>5</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A36" s="27"/>
+      <c r="B36" s="29">
+        <v>6</v>
+      </c>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A37" s="27"/>
+      <c r="B37" s="29">
+        <v>7</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A38" s="27"/>
+      <c r="B38" s="29">
+        <v>8</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A39" s="27"/>
+      <c r="B39" s="29">
+        <v>9</v>
+      </c>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A40" s="27"/>
+      <c r="B40" s="29">
+        <v>10</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A42" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A44" s="27"/>
+      <c r="B44" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="E31" s="31" t="s">
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A45" s="27"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="15" t="s">
         <v>111</v>
-      </c>
-      <c r="F31" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A32" s="28"/>
-      <c r="B32" s="31">
-        <v>2</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="F32" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A33" s="28"/>
-      <c r="B33" s="31">
-        <v>3</v>
-      </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A34" s="28"/>
-      <c r="B34" s="31">
-        <v>4</v>
-      </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A35" s="28"/>
-      <c r="B35" s="31">
-        <v>5</v>
-      </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A36" s="28"/>
-      <c r="B36" s="31">
-        <v>6</v>
-      </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A37" s="28"/>
-      <c r="B37" s="31">
-        <v>7</v>
-      </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A38" s="28"/>
-      <c r="B38" s="31">
-        <v>8</v>
-      </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A39" s="28"/>
-      <c r="B39" s="31">
-        <v>9</v>
-      </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A40" s="28"/>
-      <c r="B40" s="31">
-        <v>10</v>
-      </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A42" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="15" t="s">
-        <v>116</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
@@ -2386,66 +2371,66 @@
       <c r="L46" s="16"/>
       <c r="M46" s="16"/>
       <c r="N46" s="17"/>
-      <c r="O46" s="28"/>
+      <c r="O46" s="27"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
       <c r="C50" s="18" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
@@ -2458,11 +2443,11 @@
       <c r="L50" s="19"/>
       <c r="M50" s="19"/>
       <c r="N50" s="20"/>
-      <c r="O50" s="28"/>
+      <c r="O50" s="27"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
       <c r="C51" s="21"/>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
@@ -2475,13 +2460,13 @@
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="23"/>
-      <c r="O51" s="28"/>
+      <c r="O51" s="27"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A52" s="28"/>
-      <c r="B52" s="28"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
       <c r="C52" s="21" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
@@ -2494,13 +2479,13 @@
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="23"/>
-      <c r="O52" s="28"/>
+      <c r="O52" s="27"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="27"/>
       <c r="C53" s="21" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
@@ -2513,13 +2498,13 @@
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="23"/>
-      <c r="O53" s="28"/>
+      <c r="O53" s="27"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
       <c r="C54" s="24" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
@@ -2532,102 +2517,102 @@
       <c r="L54" s="25"/>
       <c r="M54" s="25"/>
       <c r="N54" s="26"/>
-      <c r="O54" s="28"/>
+      <c r="O54" s="27"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="28"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="28"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="27"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A56" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="28"/>
+      <c r="A56" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="27"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="28"/>
-      <c r="M57" s="28"/>
-      <c r="N57" s="28"/>
-      <c r="O57" s="28"/>
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="27"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A58" s="28"/>
-      <c r="B58" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="28"/>
-      <c r="M58" s="28"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="28"/>
+      <c r="A58" s="27"/>
+      <c r="B58" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="27"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A59" s="28"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="28"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="27"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A60" s="28"/>
-      <c r="B60" s="28"/>
+      <c r="A60" s="27"/>
+      <c r="B60" s="27"/>
       <c r="C60" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
@@ -2640,102 +2625,102 @@
       <c r="L60" s="16"/>
       <c r="M60" s="16"/>
       <c r="N60" s="17"/>
-      <c r="O60" s="28"/>
+      <c r="O60" s="27"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A61" s="28"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="28"/>
-      <c r="M61" s="28"/>
-      <c r="N61" s="28"/>
-      <c r="O61" s="28"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="27"/>
+      <c r="M61" s="27"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="27"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A62" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
-      <c r="K62" s="28"/>
-      <c r="L62" s="28"/>
-      <c r="M62" s="28"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="28"/>
+      <c r="A62" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="27"/>
+      <c r="M62" s="27"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="27"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A63" s="28"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="28"/>
-      <c r="L63" s="28"/>
-      <c r="M63" s="28"/>
-      <c r="N63" s="28"/>
-      <c r="O63" s="28"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="27"/>
+      <c r="N63" s="27"/>
+      <c r="O63" s="27"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A64" s="28"/>
-      <c r="B64" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="28"/>
-      <c r="M64" s="28"/>
-      <c r="N64" s="28"/>
-      <c r="O64" s="28"/>
+      <c r="A64" s="27"/>
+      <c r="B64" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="27"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A65" s="28"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="28"/>
-      <c r="N65" s="28"/>
-      <c r="O65" s="28"/>
+      <c r="A65" s="27"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="27"/>
+      <c r="O65" s="27"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A66" s="28"/>
-      <c r="B66" s="28"/>
+      <c r="A66" s="27"/>
+      <c r="B66" s="27"/>
       <c r="C66" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D66" s="16"/>
       <c r="E66" s="16"/>
@@ -2748,85 +2733,85 @@
       <c r="L66" s="16"/>
       <c r="M66" s="16"/>
       <c r="N66" s="17"/>
-      <c r="O66" s="28"/>
+      <c r="O66" s="27"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A67" s="28"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="28"/>
-      <c r="M67" s="28"/>
-      <c r="N67" s="28"/>
-      <c r="O67" s="28"/>
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="27"/>
+      <c r="M67" s="27"/>
+      <c r="N67" s="27"/>
+      <c r="O67" s="27"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A68" s="28"/>
-      <c r="B68" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="28"/>
-      <c r="M68" s="28"/>
-      <c r="N68" s="28"/>
-      <c r="O68" s="28"/>
+      <c r="A68" s="27"/>
+      <c r="B68" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="27"/>
+      <c r="M68" s="27"/>
+      <c r="N68" s="27"/>
+      <c r="O68" s="27"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A69" s="28"/>
-      <c r="B69" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="28"/>
-      <c r="L69" s="28"/>
-      <c r="M69" s="28"/>
-      <c r="N69" s="28"/>
-      <c r="O69" s="28"/>
+      <c r="A69" s="27"/>
+      <c r="B69" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="27"/>
+      <c r="M69" s="27"/>
+      <c r="N69" s="27"/>
+      <c r="O69" s="27"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A70" s="28"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="28"/>
-      <c r="L70" s="28"/>
-      <c r="M70" s="28"/>
-      <c r="N70" s="28"/>
-      <c r="O70" s="28"/>
+      <c r="A70" s="27"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="27"/>
+      <c r="N70" s="27"/>
+      <c r="O70" s="27"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A71" s="28"/>
-      <c r="B71" s="28"/>
+      <c r="A71" s="27"/>
+      <c r="B71" s="27"/>
       <c r="C71" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D71" s="16"/>
       <c r="E71" s="16"/>
@@ -2839,66 +2824,66 @@
       <c r="L71" s="16"/>
       <c r="M71" s="16"/>
       <c r="N71" s="17"/>
-      <c r="O71" s="28"/>
+      <c r="O71" s="27"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A72" s="28"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
-      <c r="K72" s="28"/>
-      <c r="L72" s="28"/>
-      <c r="M72" s="28"/>
-      <c r="N72" s="28"/>
-      <c r="O72" s="28"/>
+      <c r="A72" s="27"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="27"/>
+      <c r="K72" s="27"/>
+      <c r="L72" s="27"/>
+      <c r="M72" s="27"/>
+      <c r="N72" s="27"/>
+      <c r="O72" s="27"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A73" s="28"/>
-      <c r="B73" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="28"/>
-      <c r="M73" s="28"/>
-      <c r="N73" s="28"/>
-      <c r="O73" s="28"/>
+      <c r="A73" s="27"/>
+      <c r="B73" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
+      <c r="L73" s="27"/>
+      <c r="M73" s="27"/>
+      <c r="N73" s="27"/>
+      <c r="O73" s="27"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A74" s="28"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
-      <c r="K74" s="28"/>
-      <c r="L74" s="28"/>
-      <c r="M74" s="28"/>
-      <c r="N74" s="28"/>
-      <c r="O74" s="28"/>
+      <c r="A74" s="27"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="27"/>
+      <c r="M74" s="27"/>
+      <c r="N74" s="27"/>
+      <c r="O74" s="27"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A75" s="28"/>
-      <c r="B75" s="28"/>
+      <c r="A75" s="27"/>
+      <c r="B75" s="27"/>
       <c r="C75" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D75" s="16"/>
       <c r="E75" s="16"/>
@@ -2911,24 +2896,24 @@
       <c r="L75" s="16"/>
       <c r="M75" s="16"/>
       <c r="N75" s="17"/>
-      <c r="O75" s="28"/>
+      <c r="O75" s="27"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A76" s="28"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
-      <c r="K76" s="28"/>
-      <c r="L76" s="28"/>
-      <c r="M76" s="28"/>
-      <c r="N76" s="28"/>
-      <c r="O76" s="28"/>
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="27"/>
+      <c r="L76" s="27"/>
+      <c r="M76" s="27"/>
+      <c r="N76" s="27"/>
+      <c r="O76" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2969,19 +2954,19 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="27"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
@@ -3352,7 +3337,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O15"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3944,7 +3931,7 @@
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3998,21 +3985,11 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="6">

--- a/template/Solaris/blank_XSCFチェックシート.xlsx
+++ b/template/Solaris/blank_XSCFチェックシート.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="711" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="6" r:id="rId1"/>
     <sheet name="検査対象" sheetId="1" r:id="rId2"/>
     <sheet name="検査レポート" sheetId="2" r:id="rId3"/>
     <sheet name="エラーレポート" sheetId="3" r:id="rId4"/>
-    <sheet name="チェックシート(Solaris)" sheetId="4" r:id="rId5"/>
+    <sheet name="チェックシート(XSCF)" sheetId="4" r:id="rId5"/>
     <sheet name="テンプレート(XSCF)" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="443629826"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1531257532" val="934" rev="123" revOS="4"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="137">
   <si>
     <t>共通設定</t>
   </si>
@@ -100,12 +100,24 @@
     <t>Solaris</t>
   </si>
   <si>
+    <t>m10</t>
+  </si>
+  <si>
+    <t>10.20.129.20</t>
+  </si>
+  <si>
     <t>Test</t>
   </si>
   <si>
     <t>XSCF</t>
   </si>
   <si>
+    <t>m12</t>
+  </si>
+  <si>
+    <t>10.20.129.22</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -271,7 +283,271 @@
     <t>snmp_version:k</t>
   </si>
   <si>
+    <t>${ip}</t>
+  </si>
+  <si>
+    <t>Enabled</t>
+  </si>
+  <si>
+    <t>host2</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
     <t>0. はじめに</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>* .\template\Solaris が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>2. 検査シート編集</t>
+  </si>
+  <si>
+    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
+  </si>
+  <si>
+    <t>検査するシナリオID Solaris を指定します。</t>
+    <rPh sb="20" eb="22">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>対象サーバ</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>検査対象サーバ名。任意の名前で問題ありませんが、通常はホスト名を指定します。</t>
+    <rPh sb="9" eb="11">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>IPアドレス</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>検査対象サーバのIPを入力します。</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>後述する設定ファイル (connfig.goovy) 内に記述した接続アカウント ID を指定します。</t>
+    <rPh sb="0" eb="2">
+      <t>コウジュツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>テンプレートID</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(オプション)  別シートの値の比較用テンプレートシートのID Solaris10 または、 Solaris11 を指定します。</t>
+    <rPh sb="9" eb="10">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>エイリアス</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(未使用)</t>
+    <rPh sb="1" eb="4">
+      <t>ミシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>比較対象</t>
+    <rPh sb="0" eb="2">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(オプション) インベントリ結果の比較をしたい場合に、比較対象サーバ名を指定します。</t>
+    <rPh sb="14" eb="16">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>特定パスワード</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(オプション) 接続時のパスワード入力で、対象サーバ固有の値を指定する場合に入力します。空欄の場合は設定ファイル(config.groovy)内に記述したパスワードを使用します。</t>
+    <rPh sb="8" eb="10">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(オプション) OS設定項目の値比較で、対象サーバ固有の値を指定する場合に入力します。空欄の場合はテンプレートの値を比較します。</t>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>入力例：</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レイ</t>
+    </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -285,10 +561,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>* .\template\Solaris が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>1. プロジェクトディレクトリの移動</t>
     <rPh sb="16" eb="18">
       <t>イドウ</t>
@@ -300,279 +572,18 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>2. 検査シート編集</t>
-  </si>
-  <si>
     <t>「.\template\Solaris\XSCFチェックシート.xlsx」(本ファイル)を開きます。</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
-  </si>
-  <si>
-    <t>検査するシナリオID Solaris を指定します。</t>
-    <rPh sb="20" eb="22">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>対象サーバ</t>
-    <rPh sb="0" eb="2">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>検査対象サーバ名。任意の名前で問題ありませんが、通常はホスト名を指定します。</t>
-    <rPh sb="9" eb="11">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>IPアドレス</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>検査対象サーバのIPを入力します。</t>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ユーザID</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>後述する設定ファイル (connfig.goovy) 内に記述した接続アカウント ID を指定します。</t>
-    <rPh sb="0" eb="2">
-      <t>コウジュツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>テンプレートID</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>(オプション)  別シートの値の比較用テンプレートシートのID Solaris10 または、 Solaris11 を指定します。</t>
-    <rPh sb="9" eb="10">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>エイリアス</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>(未使用)</t>
-    <rPh sb="1" eb="4">
-      <t>ミシヨウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>比較対象</t>
-    <rPh sb="0" eb="2">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>(オプション) インベントリ結果の比較をしたい場合に、比較対象サーバ名を指定します。</t>
-    <rPh sb="14" eb="16">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>特定パスワード</t>
-    <rPh sb="0" eb="2">
-      <t>トクテイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>(オプション) 接続時のパスワード入力で、対象サーバ固有の値を指定する場合に入力します。空欄の場合は設定ファイル(config.groovy)内に記述したパスワードを使用します。</t>
-    <rPh sb="8" eb="10">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>コユウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>ネットワーク</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>(オプション) OS設定項目の値比較で、対象サーバ固有の値を指定する場合に入力します。空欄の場合はテンプレートの値を比較します。</t>
-    <rPh sb="10" eb="12">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>コユウ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ヒカク</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>入力例：</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>m10</t>
-  </si>
-  <si>
-    <t>10.20.129.20</t>
-  </si>
-  <si>
-    <t>m12</t>
-  </si>
-  <si>
-    <t>10.20.129.22</t>
-  </si>
-  <si>
     <t>3. 設定ファイル(config.groovy)編集</t>
   </si>
   <si>
     <t>設定ファイルを編集します。</t>
-  </si>
-  <si>
-    <t>notepad++ .\template\Solaris\config_xscf.groovy</t>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>以下の各検査対象の接続情報を編集します。</t>
@@ -582,26 +593,10 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>// XSCF 接続情報</t>
-  </si>
-  <si>
-    <t>account.XSCF.Test.user      = 'console'</t>
-  </si>
-  <si>
-    <t>account.XSCF.Test.password  = 'console0'</t>
-  </si>
-  <si>
-    <t>account.XSCF.Test.work_dir  = '/tmp/gradle_test'</t>
-  </si>
-  <si>
     <t>4. Getconfig インベントリ収集実行</t>
   </si>
   <si>
     <t>getconfig コマンドを実行して、検査対象のインベントリ収集を行います。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>getconfig -c .\template\Solaris\config_xscf.groovy</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -646,6 +641,45 @@
   </si>
   <si>
     <t>getconfig -u db</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>notepad++ .\template\Solaris\config_xscf.groovy</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>getconfig -c .\template\Solaris\config_xscf.groovy</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>// XSCF 接続情報</t>
+  </si>
+  <si>
+    <t>account.XSCF.Test.user      = 'console'</t>
+  </si>
+  <si>
+    <t>account.XSCF.Test.password  = 'console0'</t>
+  </si>
+  <si>
+    <t>account.XSCF.Test.work_dir  = '/tmp/gradle_test'</t>
+  </si>
+  <si>
+    <t>XSCF</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(*)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>対象プラットフォーム</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>XSCF</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -653,7 +687,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -699,13 +733,6 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -767,7 +794,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -881,6 +908,13 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1001,18 +1035,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1055,65 +1086,61 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="17" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="18" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="2" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="出力" xfId="1" builtinId="21" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="標準 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1429,1491 +1456,1502 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="3.625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="14" customWidth="1"/>
-    <col min="5" max="5" width="13" style="14" customWidth="1"/>
-    <col min="6" max="6" width="9" style="14"/>
-    <col min="7" max="7" width="13.75" style="14" customWidth="1"/>
-    <col min="8" max="8" width="13.125" style="14" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="14" customWidth="1"/>
-    <col min="10" max="11" width="15.875" style="14" customWidth="1"/>
-    <col min="12" max="1020" width="8.75" style="14" customWidth="1"/>
-    <col min="1021" max="1022" width="11.625" style="14" customWidth="1"/>
-    <col min="1023" max="16384" width="9" style="14"/>
+    <col min="1" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="11" width="15.875" customWidth="1"/>
+    <col min="12" max="1020" width="8.75" customWidth="1"/>
+    <col min="1021" max="1022" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="27"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
+      <c r="A2" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
+      <c r="A7" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
+      <c r="A11" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
+      <c r="D16" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="30" t="s">
+      <c r="A28" s="26"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30" t="s">
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="K28" s="30"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28" t="s">
+      <c r="A29" s="26"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="28" t="s">
+      <c r="H29" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="28" t="s">
+      <c r="I29" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="28" t="s">
+      <c r="J29" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="K29" s="28" t="s">
+      <c r="K29" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28" t="s">
+      <c r="A30" s="26"/>
+      <c r="B30" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="28" t="s">
+      <c r="G30" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="28" t="s">
+      <c r="H30" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="28" t="s">
+      <c r="I30" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="28" t="s">
+      <c r="J30" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="28" t="s">
+      <c r="K30" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A31" s="27"/>
-      <c r="B31" s="29">
+      <c r="A31" s="26"/>
+      <c r="B31" s="28">
         <v>1</v>
       </c>
-      <c r="C31" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="F31" s="29" t="s">
+      <c r="C31" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="29" t="s">
+      <c r="E31" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
+      <c r="F31" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A32" s="27"/>
-      <c r="B32" s="29">
+      <c r="A32" s="26"/>
+      <c r="B32" s="28">
         <v>2</v>
       </c>
-      <c r="C32" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
+      <c r="C32" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A33" s="27"/>
-      <c r="B33" s="29">
+      <c r="A33" s="26"/>
+      <c r="B33" s="28">
         <v>3</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A34" s="27"/>
-      <c r="B34" s="29">
+      <c r="A34" s="26"/>
+      <c r="B34" s="28">
         <v>4</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A35" s="27"/>
-      <c r="B35" s="29">
+      <c r="A35" s="26"/>
+      <c r="B35" s="28">
         <v>5</v>
       </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A36" s="27"/>
-      <c r="B36" s="29">
+      <c r="A36" s="26"/>
+      <c r="B36" s="28">
         <v>6</v>
       </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A37" s="27"/>
-      <c r="B37" s="29">
+      <c r="A37" s="26"/>
+      <c r="B37" s="28">
         <v>7</v>
       </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A38" s="27"/>
-      <c r="B38" s="29">
+      <c r="A38" s="26"/>
+      <c r="B38" s="28">
         <v>8</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A39" s="27"/>
-      <c r="B39" s="29">
+      <c r="A39" s="26"/>
+      <c r="B39" s="28">
         <v>9</v>
       </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A40" s="27"/>
-      <c r="B40" s="29">
+      <c r="A40" s="26"/>
+      <c r="B40" s="28">
         <v>10</v>
       </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A42" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
+      <c r="A42" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="27"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="27"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="26"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="27"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="26"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="27"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="26"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="27"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="26"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="27"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="26"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="23"/>
-      <c r="O53" s="27"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="26"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="26"/>
-      <c r="O54" s="27"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="26"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="26"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="26"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="27"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="26"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="26"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A57" s="27"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="26"/>
+      <c r="N57" s="26"/>
+      <c r="O57" s="26"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27" t="s">
+      <c r="A58" s="26"/>
+      <c r="B58" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="27"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="27"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="26"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="26"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="27"/>
-      <c r="M59" s="27"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="27"/>
+      <c r="A59" s="26"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="26"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="26"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="15" t="s">
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="26"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="26"/>
+      <c r="N61" s="26"/>
+      <c r="O61" s="26"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A62" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="27"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A61" s="27"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="27"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="27"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A62" s="27" t="s">
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="26"/>
+      <c r="N62" s="26"/>
+      <c r="O62" s="26"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A63" s="26"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="26"/>
+      <c r="N63" s="26"/>
+      <c r="O63" s="26"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A64" s="26"/>
+      <c r="B64" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="27"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="27"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A63" s="27"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="27"/>
-      <c r="M63" s="27"/>
-      <c r="N63" s="27"/>
-      <c r="O63" s="27"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A64" s="27"/>
-      <c r="B64" s="27" t="s">
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="26"/>
+      <c r="N64" s="26"/>
+      <c r="O64" s="26"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A65" s="26"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="26"/>
+      <c r="N65" s="26"/>
+      <c r="O65" s="26"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A66" s="26"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="27"/>
-      <c r="M64" s="27"/>
-      <c r="N64" s="27"/>
-      <c r="O64" s="27"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A65" s="27"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="27"/>
-      <c r="M65" s="27"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="27"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A66" s="27"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="15" t="s">
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="26"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A67" s="26"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="26"/>
+      <c r="N67" s="26"/>
+      <c r="O67" s="26"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A68" s="26"/>
+      <c r="B68" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="27"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="27"/>
-      <c r="M67" s="27"/>
-      <c r="N67" s="27"/>
-      <c r="O67" s="27"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A68" s="27"/>
-      <c r="B68" s="27" t="s">
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="26"/>
+      <c r="N68" s="26"/>
+      <c r="O68" s="26"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A69" s="26"/>
+      <c r="B69" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="27"/>
-      <c r="L68" s="27"/>
-      <c r="M68" s="27"/>
-      <c r="N68" s="27"/>
-      <c r="O68" s="27"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A69" s="27"/>
-      <c r="B69" s="27" t="s">
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="26"/>
+      <c r="N69" s="26"/>
+      <c r="O69" s="26"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A70" s="26"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="26"/>
+      <c r="N70" s="26"/>
+      <c r="O70" s="26"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A71" s="26"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="27"/>
-      <c r="K69" s="27"/>
-      <c r="L69" s="27"/>
-      <c r="M69" s="27"/>
-      <c r="N69" s="27"/>
-      <c r="O69" s="27"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A70" s="27"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="27"/>
-      <c r="M70" s="27"/>
-      <c r="N70" s="27"/>
-      <c r="O70" s="27"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A71" s="27"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="15" t="s">
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="26"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A72" s="26"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="26"/>
+      <c r="M72" s="26"/>
+      <c r="N72" s="26"/>
+      <c r="O72" s="26"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A73" s="26"/>
+      <c r="B73" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="27"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="27"/>
-      <c r="K72" s="27"/>
-      <c r="L72" s="27"/>
-      <c r="M72" s="27"/>
-      <c r="N72" s="27"/>
-      <c r="O72" s="27"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A73" s="27"/>
-      <c r="B73" s="27" t="s">
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="26"/>
+      <c r="M73" s="26"/>
+      <c r="N73" s="26"/>
+      <c r="O73" s="26"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A74" s="26"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="26"/>
+      <c r="N74" s="26"/>
+      <c r="O74" s="26"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A75" s="26"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="27"/>
-      <c r="L73" s="27"/>
-      <c r="M73" s="27"/>
-      <c r="N73" s="27"/>
-      <c r="O73" s="27"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A74" s="27"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="27"/>
-      <c r="I74" s="27"/>
-      <c r="J74" s="27"/>
-      <c r="K74" s="27"/>
-      <c r="L74" s="27"/>
-      <c r="M74" s="27"/>
-      <c r="N74" s="27"/>
-      <c r="O74" s="27"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A75" s="27"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
-      <c r="L75" s="16"/>
-      <c r="M75" s="16"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="27"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="26"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="27"/>
-      <c r="L76" s="27"/>
-      <c r="M76" s="27"/>
-      <c r="N76" s="27"/>
-      <c r="O76" s="27"/>
+      <c r="A76" s="26"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="26"/>
+      <c r="M76" s="26"/>
+      <c r="N76" s="26"/>
+      <c r="O76" s="26"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B78" t="s">
+        <v>134</v>
+      </c>
+      <c r="C78" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C80" t="s">
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2934,8 +2972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2954,19 +2992,19 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="31"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
@@ -3323,6 +3361,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>利用手順!$C$79:$C$80</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B23</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1531257532" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
@@ -3337,8 +3385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="70" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3356,57 +3404,57 @@
   <sheetData>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>12</v>
@@ -3423,39 +3471,39 @@
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>20</v>
@@ -3469,7 +3517,7 @@
     </row>
     <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -3487,7 +3535,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
@@ -3675,33 +3723,33 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -3793,122 +3841,122 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3930,9 +3978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3943,22 +3989,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -3969,27 +4015,37 @@
         <v>20</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="6">

--- a/template/Solaris/blank_XSCFチェックシート.xlsx
+++ b/template/Solaris/blank_XSCFチェックシート.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="141">
   <si>
     <t>共通設定</t>
   </si>
@@ -298,18 +298,7 @@
     <t>v2</t>
   </si>
   <si>
-    <t>0. はじめに</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>* .\template\Solaris が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>2. 検査シート編集</t>
-  </si>
-  <si>
-    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
   </si>
   <si>
     <t>検査するシナリオID Solaris を指定します。</t>
@@ -348,10 +337,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>IPアドレス</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>検査対象サーバのIPを入力します。</t>
     <rPh sb="11" eb="13">
       <t>ニュウリョク</t>
@@ -359,10 +344,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>ユーザID</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>後述する設定ファイル (connfig.goovy) 内に記述した接続アカウント ID を指定します。</t>
     <rPh sb="0" eb="2">
       <t>コウジュツ</t>
@@ -376,10 +357,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>テンプレートID</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>(オプション)  別シートの値の比較用テンプレートシートのID Solaris10 または、 Solaris11 を指定します。</t>
     <rPh sb="9" eb="10">
       <t>ベツ</t>
@@ -393,10 +370,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>エイリアス</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>(未使用)</t>
     <rPh sb="1" eb="4">
       <t>ミシヨウ</t>
@@ -568,14 +541,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>Solaris OSテンプレートのインベントリ採取実行後、同ディレクトリで XSCF の HW構成情報収集します</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>「.\template\Solaris\XSCFチェックシート.xlsx」(本ファイル)を開きます。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>ネットワーク</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -640,10 +605,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>getconfig -u db</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>notepad++ .\template\Solaris\config_xscf.groovy</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -679,15 +640,122 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>XSCF</t>
+    <t>0. はじめに</t>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>* XSCF に Telnet 接続し、インベントリ収集コマンドを実行します。</t>
+    <rPh sb="16" eb="18">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュウシュウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>* .\template\Solaris が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Solaris OSテンプレートのインベントリ採取実行後、同ディレクトリで XSCF の HW構成情報収集します</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>「.\template\Solaris\XSCFチェックシート.xlsx」(本ファイル)を開きます。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。(*)が必須入力項目となります。</t>
+    <rPh sb="40" eb="42">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(*)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>IPアドレス</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>テンプレートID</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>エイリアス</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Redmine プラグインデータへのロード</t>
+  </si>
+  <si>
+    <t>getconfig -u db</t>
+  </si>
+  <si>
+    <t>_redmine:SPARCサーバ</t>
+  </si>
+  <si>
+    <t>(注意) XSCF の構成情報は Redmine チケットに関する項目の登録がありません。Redmineチケット登録は省略し、OS(Solaris) のインベントリ収集実行後、Redmineチケットを登録してください。</t>
+    <rPh sb="1" eb="3">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ショウリャク</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>シュウシュウ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -736,6 +804,13 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1125,13 +1200,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1456,9 +1531,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O80"/>
+  <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1493,7 +1568,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -1530,7 +1605,7 @@
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="26"/>
       <c r="B4" s="26" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
@@ -1549,7 +1624,7 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="26"/>
       <c r="B5" s="26" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
@@ -1567,7 +1642,9 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
+      <c r="B6" s="26" t="s">
+        <v>128</v>
+      </c>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
@@ -1583,9 +1660,7 @@
       <c r="O6" s="26"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="26" t="s">
-        <v>110</v>
-      </c>
+      <c r="A7" s="26"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
@@ -1602,7 +1677,9 @@
       <c r="O7" s="26"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="26"/>
+      <c r="A8" s="26" t="s">
+        <v>103</v>
+      </c>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -1620,9 +1697,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="26"/>
-      <c r="B9" s="26" t="s">
-        <v>111</v>
-      </c>
+      <c r="B9" s="26"/>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
@@ -1639,7 +1714,9 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
+      <c r="B10" s="26" t="s">
+        <v>129</v>
+      </c>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -1655,9 +1732,7 @@
       <c r="O10" s="26"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="26" t="s">
-        <v>90</v>
-      </c>
+      <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
@@ -1674,7 +1749,9 @@
       <c r="O11" s="26"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="26"/>
+      <c r="A12" s="26" t="s">
+        <v>88</v>
+      </c>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
@@ -1692,9 +1769,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="26"/>
-      <c r="B13" s="26" t="s">
-        <v>112</v>
-      </c>
+      <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
@@ -1712,7 +1787,7 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="26"/>
       <c r="B14" s="26" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
@@ -1730,7 +1805,9 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
+      <c r="B15" s="26" t="s">
+        <v>131</v>
+      </c>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
@@ -1748,12 +1825,8 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
-      <c r="C16" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>92</v>
-      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
@@ -1768,12 +1841,14 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
+      <c r="B17" s="26" t="s">
+        <v>132</v>
+      </c>
       <c r="C17" s="26" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
@@ -1789,12 +1864,14 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
+      <c r="B18" s="26" t="s">
+        <v>132</v>
+      </c>
       <c r="C18" s="26" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
@@ -1810,12 +1887,14 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
+      <c r="B19" s="26" t="s">
+        <v>132</v>
+      </c>
       <c r="C19" s="26" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
@@ -1831,12 +1910,14 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
+      <c r="B20" s="26" t="s">
+        <v>132</v>
+      </c>
       <c r="C20" s="26" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
@@ -1854,10 +1935,10 @@
       <c r="A21" s="26"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
@@ -1875,10 +1956,10 @@
       <c r="A22" s="26"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
@@ -1896,10 +1977,10 @@
       <c r="A23" s="26"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
@@ -1917,10 +1998,10 @@
       <c r="A24" s="26"/>
       <c r="B24" s="26"/>
       <c r="C24" s="26" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
@@ -1937,8 +2018,12 @@
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="26"/>
       <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="C25" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>100</v>
+      </c>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -1953,9 +2038,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="26"/>
-      <c r="B26" s="26" t="s">
-        <v>108</v>
-      </c>
+      <c r="B26" s="26"/>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
@@ -1972,7 +2055,9 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
+      <c r="B27" s="26" t="s">
+        <v>101</v>
+      </c>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
@@ -1989,20 +2074,16 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="26"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="K28" s="29"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
       <c r="L28" s="26"/>
       <c r="M28" s="26"/>
       <c r="N28" s="26"/>
@@ -2011,33 +2092,19 @@
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="26"/>
       <c r="B29" s="27"/>
-      <c r="C29" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="K29" s="27" t="s">
-        <v>10</v>
-      </c>
+      <c r="C29" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" s="29"/>
       <c r="L29" s="26"/>
       <c r="M29" s="26"/>
       <c r="N29" s="26"/>
@@ -2045,35 +2112,33 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="26"/>
-      <c r="B30" s="27" t="s">
-        <v>11</v>
-      </c>
+      <c r="B30" s="27"/>
       <c r="C30" s="27" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I30" s="27" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J30" s="27" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L30" s="26"/>
       <c r="M30" s="26"/>
@@ -2082,28 +2147,36 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="26"/>
-      <c r="B31" s="28">
-        <v>1</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
+      <c r="B31" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="L31" s="26"/>
       <c r="M31" s="26"/>
       <c r="N31" s="26"/>
@@ -2112,16 +2185,16 @@
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="26"/>
       <c r="B32" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F32" s="28" t="s">
         <v>24</v>
@@ -2141,13 +2214,23 @@
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="26"/>
       <c r="B33" s="28">
-        <v>3</v>
-      </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
+        <v>2</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
       <c r="J33" s="28"/>
@@ -2160,7 +2243,7 @@
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="26"/>
       <c r="B34" s="28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
@@ -2179,7 +2262,7 @@
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="26"/>
       <c r="B35" s="28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
@@ -2198,7 +2281,7 @@
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" s="26"/>
       <c r="B36" s="28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
@@ -2217,7 +2300,7 @@
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" s="26"/>
       <c r="B37" s="28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
@@ -2236,7 +2319,7 @@
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="26"/>
       <c r="B38" s="28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38" s="28"/>
       <c r="D38" s="28"/>
@@ -2255,7 +2338,7 @@
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="26"/>
       <c r="B39" s="28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C39" s="28"/>
       <c r="D39" s="28"/>
@@ -2274,7 +2357,7 @@
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="26"/>
       <c r="B40" s="28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40" s="28"/>
       <c r="D40" s="28"/>
@@ -2292,25 +2375,25 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
+      <c r="B41" s="28">
+        <v>10</v>
+      </c>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
       <c r="L41" s="26"/>
       <c r="M41" s="26"/>
       <c r="N41" s="26"/>
       <c r="O41" s="26"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A42" s="26" t="s">
-        <v>114</v>
-      </c>
+      <c r="A42" s="26"/>
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
@@ -2327,7 +2410,9 @@
       <c r="O42" s="26"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A43" s="26"/>
+      <c r="A43" s="26" t="s">
+        <v>105</v>
+      </c>
       <c r="B43" s="26"/>
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
@@ -2345,9 +2430,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" s="26"/>
-      <c r="B44" s="26" t="s">
-        <v>115</v>
-      </c>
+      <c r="B44" s="26"/>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
@@ -2364,7 +2447,9 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
+      <c r="B45" s="26" t="s">
+        <v>106</v>
+      </c>
       <c r="C45" s="26"/>
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
@@ -2382,44 +2467,42 @@
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="26"/>
       <c r="B46" s="26"/>
-      <c r="C46" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="16"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26"/>
       <c r="O46" s="26"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47" s="26"/>
       <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="26"/>
+      <c r="C47" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="16"/>
       <c r="O47" s="26"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" s="26"/>
-      <c r="B48" s="26" t="s">
-        <v>116</v>
-      </c>
+      <c r="B48" s="26"/>
       <c r="C48" s="26"/>
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
@@ -2436,7 +2519,9 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="26"/>
-      <c r="B49" s="26"/>
+      <c r="B49" s="26" t="s">
+        <v>107</v>
+      </c>
       <c r="C49" s="26"/>
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
@@ -2454,45 +2539,43 @@
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="26"/>
       <c r="B50" s="26"/>
-      <c r="C50" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="19"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
       <c r="O50" s="26"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="26"/>
       <c r="B51" s="26"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="22"/>
+      <c r="C51" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="19"/>
       <c r="O51" s="26"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="26"/>
       <c r="B52" s="26"/>
-      <c r="C52" s="20" t="s">
-        <v>130</v>
-      </c>
+      <c r="C52" s="20"/>
       <c r="D52" s="21"/>
       <c r="E52" s="21"/>
       <c r="F52" s="21"/>
@@ -2510,7 +2593,7 @@
       <c r="A53" s="26"/>
       <c r="B53" s="26"/>
       <c r="C53" s="20" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D53" s="21"/>
       <c r="E53" s="21"/>
@@ -2528,43 +2611,43 @@
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="26"/>
       <c r="B54" s="26"/>
-      <c r="C54" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="25"/>
+      <c r="C54" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="22"/>
       <c r="O54" s="26"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="26"/>
       <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="26"/>
+      <c r="C55" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="25"/>
       <c r="O55" s="26"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A56" s="26" t="s">
-        <v>117</v>
-      </c>
+      <c r="A56" s="26"/>
       <c r="B56" s="26"/>
       <c r="C56" s="26"/>
       <c r="D56" s="26"/>
@@ -2581,7 +2664,9 @@
       <c r="O56" s="26"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A57" s="26"/>
+      <c r="A57" s="26" t="s">
+        <v>108</v>
+      </c>
       <c r="B57" s="26"/>
       <c r="C57" s="26"/>
       <c r="D57" s="26"/>
@@ -2599,9 +2684,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58" s="26"/>
-      <c r="B58" s="26" t="s">
-        <v>118</v>
-      </c>
+      <c r="B58" s="26"/>
       <c r="C58" s="26"/>
       <c r="D58" s="26"/>
       <c r="E58" s="26"/>
@@ -2618,7 +2701,9 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="26"/>
-      <c r="B59" s="26"/>
+      <c r="B59" s="26" t="s">
+        <v>109</v>
+      </c>
       <c r="C59" s="26"/>
       <c r="D59" s="26"/>
       <c r="E59" s="26"/>
@@ -2636,43 +2721,41 @@
     <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60" s="26"/>
       <c r="B60" s="26"/>
-      <c r="C60" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="16"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="26"/>
+      <c r="N60" s="26"/>
       <c r="O60" s="26"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61" s="26"/>
       <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="26"/>
-      <c r="M61" s="26"/>
-      <c r="N61" s="26"/>
+      <c r="C61" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="16"/>
       <c r="O61" s="26"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A62" s="26" t="s">
-        <v>119</v>
-      </c>
+      <c r="A62" s="26"/>
       <c r="B62" s="26"/>
       <c r="C62" s="26"/>
       <c r="D62" s="26"/>
@@ -2689,7 +2772,9 @@
       <c r="O62" s="26"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A63" s="26"/>
+      <c r="A63" s="26" t="s">
+        <v>110</v>
+      </c>
       <c r="B63" s="26"/>
       <c r="C63" s="26"/>
       <c r="D63" s="26"/>
@@ -2707,9 +2792,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64" s="26"/>
-      <c r="B64" s="26" t="s">
-        <v>120</v>
-      </c>
+      <c r="B64" s="26"/>
       <c r="C64" s="26"/>
       <c r="D64" s="26"/>
       <c r="E64" s="26"/>
@@ -2726,7 +2809,9 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="26"/>
-      <c r="B65" s="26"/>
+      <c r="B65" s="26" t="s">
+        <v>111</v>
+      </c>
       <c r="C65" s="26"/>
       <c r="D65" s="26"/>
       <c r="E65" s="26"/>
@@ -2744,44 +2829,42 @@
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" s="26"/>
       <c r="B66" s="26"/>
-      <c r="C66" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="16"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="26"/>
+      <c r="N66" s="26"/>
       <c r="O66" s="26"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" s="26"/>
       <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="26"/>
-      <c r="L67" s="26"/>
-      <c r="M67" s="26"/>
-      <c r="N67" s="26"/>
+      <c r="C67" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="16"/>
       <c r="O67" s="26"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" s="26"/>
-      <c r="B68" s="26" t="s">
-        <v>122</v>
-      </c>
+      <c r="B68" s="26"/>
       <c r="C68" s="26"/>
       <c r="D68" s="26"/>
       <c r="E68" s="26"/>
@@ -2799,7 +2882,7 @@
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" s="26"/>
       <c r="B69" s="26" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C69" s="26"/>
       <c r="D69" s="26"/>
@@ -2817,7 +2900,9 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" s="26"/>
-      <c r="B70" s="26"/>
+      <c r="B70" s="26" t="s">
+        <v>114</v>
+      </c>
       <c r="C70" s="26"/>
       <c r="D70" s="26"/>
       <c r="E70" s="26"/>
@@ -2835,44 +2920,42 @@
     <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A71" s="26"/>
       <c r="B71" s="26"/>
-      <c r="C71" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="15"/>
-      <c r="N71" s="16"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="26"/>
+      <c r="N71" s="26"/>
       <c r="O71" s="26"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72" s="26"/>
       <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="26"/>
-      <c r="J72" s="26"/>
-      <c r="K72" s="26"/>
-      <c r="L72" s="26"/>
-      <c r="M72" s="26"/>
-      <c r="N72" s="26"/>
+      <c r="C72" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="16"/>
       <c r="O72" s="26"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A73" s="26"/>
-      <c r="B73" s="26" t="s">
-        <v>125</v>
-      </c>
+      <c r="B73" s="26"/>
       <c r="C73" s="26"/>
       <c r="D73" s="26"/>
       <c r="E73" s="26"/>
@@ -2889,7 +2972,9 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" s="26"/>
-      <c r="B74" s="26"/>
+      <c r="B74" s="26" t="s">
+        <v>116</v>
+      </c>
       <c r="C74" s="26"/>
       <c r="D74" s="26"/>
       <c r="E74" s="26"/>
@@ -2907,26 +2992,26 @@
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" s="26"/>
       <c r="B75" s="26"/>
-      <c r="C75" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
-      <c r="N75" s="16"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="26"/>
+      <c r="N75" s="26"/>
       <c r="O75" s="26"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="26"/>
       <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
+      <c r="C76" s="26" t="s">
+        <v>137</v>
+      </c>
       <c r="D76" s="26"/>
       <c r="E76" s="26"/>
       <c r="F76" s="26"/>
@@ -2940,23 +3025,95 @@
       <c r="N76" s="26"/>
       <c r="O76" s="26"/>
     </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A77" s="26"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="26"/>
+    </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B78" t="s">
-        <v>134</v>
-      </c>
-      <c r="C78" t="s">
-        <v>135</v>
-      </c>
+      <c r="A78" s="26"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="26"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="26"/>
+      <c r="N78" s="26"/>
+      <c r="O78" s="26"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A79" s="26"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26"/>
+      <c r="L79" s="26"/>
+      <c r="M79" s="26"/>
+      <c r="N79" s="26"/>
+      <c r="O79" s="26"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C80" t="s">
-        <v>136</v>
+      <c r="A80" s="26"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="26"/>
+      <c r="J80" s="26"/>
+      <c r="K80" s="26"/>
+      <c r="L80" s="26"/>
+      <c r="M80" s="26"/>
+      <c r="N80" s="26"/>
+      <c r="O80" s="26"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B82" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C84" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="J29:K29"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2972,9 +3129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3072,11 +3227,11 @@
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -3086,11 +3241,11 @@
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -3355,7 +3510,7 @@
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
@@ -3365,7 +3520,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>利用手順!$C$79:$C$80</xm:f>
+            <xm:f>利用手順!$C$83:$C$84</xm:f>
           </x14:formula1>
           <xm:sqref>B4:B23</xm:sqref>
         </x14:dataValidation>
@@ -3386,7 +3541,7 @@
   <dimension ref="A3:O15"/>
   <sheetViews>
     <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3449,7 +3604,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>43</v>
       </c>
@@ -3480,66 +3635,66 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10" t="s">
+      <c r="E6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -3550,12 +3705,16 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="L7" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-    </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
+      <c r="O7" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -3572,7 +3731,7 @@
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -3589,7 +3748,7 @@
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3606,7 +3765,7 @@
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>

--- a/template/Solaris/blank_XSCFチェックシート.xlsx
+++ b/template/Solaris/blank_XSCFチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="エラーレポート" sheetId="4" r:id="rId4"/>
     <sheet name="チェックシート(XSCF)" sheetId="5" r:id="rId5"/>
     <sheet name="テンプレート(XSCF)" sheetId="6" r:id="rId6"/>
+    <sheet name="テンプレート(XSCF_sample)" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="153">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -491,11 +492,14 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>ファームウェア</t>
+    <t>ハードウェア</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>ハードウェア</t>
+    <t>システム情報</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1393,7 +1397,7 @@
   </sheetPr>
   <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2997,7 +3001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3115,7 +3119,7 @@
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
@@ -3123,13 +3127,13 @@
       <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
@@ -3137,13 +3141,13 @@
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
@@ -3151,13 +3155,13 @@
       <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
@@ -3165,13 +3169,13 @@
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
@@ -3179,13 +3183,13 @@
       <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
@@ -3193,13 +3197,13 @@
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
@@ -3207,13 +3211,13 @@
       <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
@@ -3221,13 +3225,13 @@
       <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
@@ -3235,13 +3239,13 @@
       <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
@@ -3249,13 +3253,13 @@
       <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
@@ -3263,13 +3267,13 @@
       <c r="A16" s="5">
         <v>13</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="H16" s="28"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
@@ -3277,13 +3281,13 @@
       <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="H17" s="28"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
@@ -3291,13 +3295,13 @@
       <c r="A18" s="5">
         <v>15</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="H18" s="28"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
@@ -3305,13 +3309,13 @@
       <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="H19" s="28"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
@@ -3319,13 +3323,13 @@
       <c r="A20" s="5">
         <v>17</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
@@ -3333,13 +3337,13 @@
       <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="H21" s="28"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
@@ -3347,13 +3351,13 @@
       <c r="A22" s="5">
         <v>19</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="H22" s="28"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
@@ -3361,13 +3365,13 @@
       <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="H23" s="28"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
@@ -3862,7 +3866,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3973,10 +3979,10 @@
         <v>152</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>53</v>
@@ -3985,7 +3991,7 @@
         <v>123</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3993,13 +3999,13 @@
         <v>123</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>53</v>
@@ -4008,7 +4014,7 @@
         <v>123</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4016,13 +4022,13 @@
         <v>123</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>53</v>
@@ -4031,7 +4037,7 @@
         <v>123</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4155,18 +4161,10 @@
       <c r="B3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>146</v>
-      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
@@ -5274,4 +5272,1179 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="6" width="19.875" customWidth="1"/>
+    <col min="7" max="1009" width="8.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
+        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="6">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="6">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="6">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="6">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="6">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="6">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="6">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="6">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="6">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="6">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="6">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="6">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="6">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="6">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="6">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="6">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="6">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="6">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="6">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="6">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="6">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="6">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="6">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="6">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="6">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="6">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="6">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="6">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="6">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="6">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" s="6">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" s="6">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="6">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" s="6">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" s="6">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="6">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="6">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" s="6">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="6">
+        <f t="shared" ref="A68:A102" si="1">A67+1</f>
+        <v>66</v>
+      </c>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" s="6">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="6">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" s="6">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" s="6">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" s="6">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" s="6">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" s="6">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" s="6">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" s="6">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" s="6">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" s="6">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" s="6">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" s="6">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" s="6">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" s="6">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" s="6">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" s="6">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A86" s="6">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87" s="6">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A88" s="6">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89" s="6">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90" s="6">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A91" s="6">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A92" s="6">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A93" s="6">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94" s="6">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95" s="6">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96" s="6">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97" s="6">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" s="6">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" s="6">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100" s="6">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101" s="6">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102" s="6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" fitToWidth="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/template/Solaris/blank_XSCFチェックシート.xlsx
+++ b/template/Solaris/blank_XSCFチェックシート.xlsx
@@ -3866,9 +3866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3876,9 +3874,9 @@
     <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="22.25" customWidth="1"/>
-    <col min="5" max="5" width="9.375" customWidth="1"/>
-    <col min="6" max="6" width="6.375" customWidth="1"/>
-    <col min="7" max="7" width="54.875" customWidth="1"/>
+    <col min="5" max="5" width="6.375" customWidth="1"/>
+    <col min="6" max="6" width="54.875" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="11" width="13.375" customWidth="1"/>
     <col min="12" max="1026" width="7.375" customWidth="1"/>
   </cols>
@@ -3924,13 +3922,13 @@
         <v>118</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3944,12 +3942,12 @@
       <c r="D5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3963,12 +3961,12 @@
       <c r="D6" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3985,13 +3983,13 @@
         <v>131</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4008,13 +4006,13 @@
         <v>124</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4031,13 +4029,13 @@
         <v>128</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4054,13 +4052,13 @@
         <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4077,13 +4075,13 @@
         <v>135</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
